--- a/EvoMusicCompanion/output/processing.xlsx
+++ b/EvoMusicCompanion/output/processing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\School\Master\Thesis\MasterThesis\EvoMusicCompanion\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0E31C4-3EBB-4800-BB34-DCDFAADEABAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9449AD0-C87A-463E-A522-DFAA3A61739E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{865D3F44-3867-4E96-98A2-A01231F117E2}"/>
+    <workbookView xWindow="2175" yWindow="2340" windowWidth="21390" windowHeight="11355" firstSheet="2" activeTab="5" xr2:uid="{865D3F44-3867-4E96-98A2-A01231F117E2}"/>
   </bookViews>
   <sheets>
     <sheet name="GA" sheetId="1" r:id="rId1"/>
@@ -10255,8 +10255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867651DF-F08C-48D8-B257-F9B8B6E1A530}">
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12736,8 +12736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CD2015-2965-4FC6-85A7-EF07A25F1780}">
   <dimension ref="A1:V87"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16645,8 +16645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1654E400-CD70-4A4E-808D-1D3D8843ADF2}">
   <dimension ref="A1:AC151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B116" workbookViewId="0">
-      <selection activeCell="R132" sqref="R132"/>
+    <sheetView tabSelected="1" topLeftCell="E31" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:W34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/EvoMusicCompanion/output/processing.xlsx
+++ b/EvoMusicCompanion/output/processing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\School\Master\Thesis\MasterThesis\EvoMusicCompanion\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9449AD0-C87A-463E-A522-DFAA3A61739E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D96D1F-D64E-4A84-95ED-28986A4BFB99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="2340" windowWidth="21390" windowHeight="11355" firstSheet="2" activeTab="5" xr2:uid="{865D3F44-3867-4E96-98A2-A01231F117E2}"/>
+    <workbookView xWindow="30450" yWindow="3195" windowWidth="21390" windowHeight="11355" firstSheet="2" activeTab="5" xr2:uid="{865D3F44-3867-4E96-98A2-A01231F117E2}"/>
   </bookViews>
   <sheets>
     <sheet name="GA" sheetId="1" r:id="rId1"/>
